--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Calr-Itga3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Calr-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>69.708697960465</v>
+        <v>81.03634266666667</v>
       </c>
       <c r="H2">
-        <v>69.708697960465</v>
+        <v>243.109028</v>
       </c>
       <c r="I2">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="J2">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.957212658238909</v>
+        <v>5.970993</v>
       </c>
       <c r="N2">
-        <v>0.957212658238909</v>
+        <v>17.912979</v>
       </c>
       <c r="O2">
-        <v>0.2901905339407403</v>
+        <v>0.6157237531330177</v>
       </c>
       <c r="P2">
-        <v>0.2901905339407403</v>
+        <v>0.6157237531330177</v>
       </c>
       <c r="Q2">
-        <v>66.72604807710992</v>
+        <v>483.867434808268</v>
       </c>
       <c r="R2">
-        <v>66.72604807710992</v>
+        <v>4354.806913274412</v>
       </c>
       <c r="S2">
-        <v>0.0438001978204329</v>
+        <v>0.1005434803539962</v>
       </c>
       <c r="T2">
-        <v>0.0438001978204329</v>
+        <v>0.1005434803539962</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.708697960465</v>
+        <v>81.03634266666667</v>
       </c>
       <c r="H3">
-        <v>69.708697960465</v>
+        <v>243.109028</v>
       </c>
       <c r="I3">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="J3">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.34135344328107</v>
+        <v>1.061748</v>
       </c>
       <c r="N3">
-        <v>2.34135344328107</v>
+        <v>3.185244</v>
       </c>
       <c r="O3">
-        <v>0.7098094660592597</v>
+        <v>0.10948655666511</v>
       </c>
       <c r="P3">
-        <v>0.7098094660592597</v>
+        <v>0.10948655666511</v>
       </c>
       <c r="Q3">
-        <v>163.2126999963748</v>
+        <v>86.040174753648</v>
       </c>
       <c r="R3">
-        <v>163.2126999963748</v>
+        <v>774.361572782832</v>
       </c>
       <c r="S3">
-        <v>0.1071358000759606</v>
+        <v>0.01787840635199116</v>
       </c>
       <c r="T3">
-        <v>0.1071358000759606</v>
+        <v>0.01787840635199116</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>176.889398206918</v>
+        <v>81.03634266666667</v>
       </c>
       <c r="H4">
-        <v>176.889398206918</v>
+        <v>243.109028</v>
       </c>
       <c r="I4">
-        <v>0.3830078400086587</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="J4">
-        <v>0.3830078400086587</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.957212658238909</v>
+        <v>0.02952066666666667</v>
       </c>
       <c r="N4">
-        <v>0.957212658238909</v>
+        <v>0.088562</v>
       </c>
       <c r="O4">
-        <v>0.2901905339407403</v>
+        <v>0.003044146203987976</v>
       </c>
       <c r="P4">
-        <v>0.2901905339407403</v>
+        <v>0.003044146203987975</v>
       </c>
       <c r="Q4">
-        <v>169.3207710719249</v>
+        <v>2.392246859748445</v>
       </c>
       <c r="R4">
-        <v>169.3207710719249</v>
+        <v>21.530221737736</v>
       </c>
       <c r="S4">
-        <v>0.1111452495956023</v>
+        <v>0.0004970882680714699</v>
       </c>
       <c r="T4">
-        <v>0.1111452495956023</v>
+        <v>0.0004970882680714699</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>176.889398206918</v>
+        <v>81.03634266666667</v>
       </c>
       <c r="H5">
-        <v>176.889398206918</v>
+        <v>243.109028</v>
       </c>
       <c r="I5">
-        <v>0.3830078400086587</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="J5">
-        <v>0.3830078400086587</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.34135344328107</v>
+        <v>2.635257666666666</v>
       </c>
       <c r="N5">
-        <v>2.34135344328107</v>
+        <v>7.905773</v>
       </c>
       <c r="O5">
-        <v>0.7098094660592597</v>
+        <v>0.2717455439978843</v>
       </c>
       <c r="P5">
-        <v>0.7098094660592597</v>
+        <v>0.2717455439978843</v>
       </c>
       <c r="Q5">
-        <v>414.1606015716838</v>
+        <v>213.5516432909604</v>
       </c>
       <c r="R5">
-        <v>414.1606015716838</v>
+        <v>1921.964789618644</v>
       </c>
       <c r="S5">
-        <v>0.2718625904130564</v>
+        <v>0.04437418992723955</v>
       </c>
       <c r="T5">
-        <v>0.2718625904130564</v>
+        <v>0.04437418992723954</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>125.306455331482</v>
+        <v>178.365814</v>
       </c>
       <c r="H6">
-        <v>125.306455331482</v>
+        <v>535.097442</v>
       </c>
       <c r="I6">
-        <v>0.2713184355995814</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="J6">
-        <v>0.2713184355995814</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.957212658238909</v>
+        <v>5.970993</v>
       </c>
       <c r="N6">
-        <v>0.957212658238909</v>
+        <v>17.912979</v>
       </c>
       <c r="O6">
-        <v>0.2901905339407403</v>
+        <v>0.6157237531330177</v>
       </c>
       <c r="P6">
-        <v>0.2901905339407403</v>
+        <v>0.6157237531330177</v>
       </c>
       <c r="Q6">
-        <v>119.944925202343</v>
+        <v>1065.021026833302</v>
       </c>
       <c r="R6">
-        <v>119.944925202343</v>
+        <v>9585.189241499718</v>
       </c>
       <c r="S6">
-        <v>0.0787340416946089</v>
+        <v>0.2213021852368256</v>
       </c>
       <c r="T6">
-        <v>0.0787340416946089</v>
+        <v>0.2213021852368256</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>125.306455331482</v>
+        <v>178.365814</v>
       </c>
       <c r="H7">
-        <v>125.306455331482</v>
+        <v>535.097442</v>
       </c>
       <c r="I7">
-        <v>0.2713184355995814</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="J7">
-        <v>0.2713184355995814</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.34135344328107</v>
+        <v>1.061748</v>
       </c>
       <c r="N7">
-        <v>2.34135344328107</v>
+        <v>3.185244</v>
       </c>
       <c r="O7">
-        <v>0.7098094660592597</v>
+        <v>0.10948655666511</v>
       </c>
       <c r="P7">
-        <v>0.7098094660592597</v>
+        <v>0.10948655666511</v>
       </c>
       <c r="Q7">
-        <v>293.386700655711</v>
+        <v>189.379546282872</v>
       </c>
       <c r="R7">
-        <v>293.386700655711</v>
+        <v>1704.415916545848</v>
       </c>
       <c r="S7">
-        <v>0.1925843939049725</v>
+        <v>0.0393514366154556</v>
       </c>
       <c r="T7">
-        <v>0.1925843939049725</v>
+        <v>0.0393514366154556</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>89.93820922091309</v>
+        <v>178.365814</v>
       </c>
       <c r="H8">
-        <v>89.93820922091309</v>
+        <v>535.097442</v>
       </c>
       <c r="I8">
-        <v>0.1947377264953664</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="J8">
-        <v>0.1947377264953664</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.957212658238909</v>
+        <v>0.02952066666666667</v>
       </c>
       <c r="N8">
-        <v>0.957212658238909</v>
+        <v>0.088562</v>
       </c>
       <c r="O8">
-        <v>0.2901905339407403</v>
+        <v>0.003044146203987976</v>
       </c>
       <c r="P8">
-        <v>0.2901905339407403</v>
+        <v>0.003044146203987975</v>
       </c>
       <c r="Q8">
-        <v>86.08999232559738</v>
+        <v>5.265477739822667</v>
       </c>
       <c r="R8">
-        <v>86.08999232559738</v>
+        <v>47.389299658404</v>
       </c>
       <c r="S8">
-        <v>0.05651104483009624</v>
+        <v>0.001094120867832411</v>
       </c>
       <c r="T8">
-        <v>0.05651104483009624</v>
+        <v>0.001094120867832411</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>89.93820922091309</v>
+        <v>178.365814</v>
       </c>
       <c r="H9">
-        <v>89.93820922091309</v>
+        <v>535.097442</v>
       </c>
       <c r="I9">
-        <v>0.1947377264953664</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="J9">
-        <v>0.1947377264953664</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.34135344328107</v>
+        <v>2.635257666666666</v>
       </c>
       <c r="N9">
-        <v>2.34135344328107</v>
+        <v>7.905773</v>
       </c>
       <c r="O9">
-        <v>0.7098094660592597</v>
+        <v>0.2717455439978843</v>
       </c>
       <c r="P9">
-        <v>0.7098094660592597</v>
+        <v>0.2717455439978843</v>
       </c>
       <c r="Q9">
-        <v>210.5771358419181</v>
+        <v>470.0398788147406</v>
       </c>
       <c r="R9">
-        <v>210.5771358419181</v>
+        <v>4230.358909332666</v>
       </c>
       <c r="S9">
-        <v>0.1382266816652702</v>
+        <v>0.09767023345956552</v>
       </c>
       <c r="T9">
-        <v>0.1382266816652702</v>
+        <v>0.09767023345956549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>146.2303303333333</v>
+      </c>
+      <c r="H10">
+        <v>438.6909910000001</v>
+      </c>
+      <c r="I10">
+        <v>0.2946630198121519</v>
+      </c>
+      <c r="J10">
+        <v>0.2946630198121519</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>5.970993</v>
+      </c>
+      <c r="N10">
+        <v>17.912979</v>
+      </c>
+      <c r="O10">
+        <v>0.6157237531330177</v>
+      </c>
+      <c r="P10">
+        <v>0.6157237531330177</v>
+      </c>
+      <c r="Q10">
+        <v>873.1402788080211</v>
+      </c>
+      <c r="R10">
+        <v>7858.26250927219</v>
+      </c>
+      <c r="S10">
+        <v>0.1814310204682469</v>
+      </c>
+      <c r="T10">
+        <v>0.1814310204682469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>146.2303303333333</v>
+      </c>
+      <c r="H11">
+        <v>438.6909910000001</v>
+      </c>
+      <c r="I11">
+        <v>0.2946630198121519</v>
+      </c>
+      <c r="J11">
+        <v>0.2946630198121519</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.061748</v>
+      </c>
+      <c r="N11">
+        <v>3.185244</v>
+      </c>
+      <c r="O11">
+        <v>0.10948655666511</v>
+      </c>
+      <c r="P11">
+        <v>0.10948655666511</v>
+      </c>
+      <c r="Q11">
+        <v>155.259760770756</v>
+      </c>
+      <c r="R11">
+        <v>1397.337846936804</v>
+      </c>
+      <c r="S11">
+        <v>0.03226163941577561</v>
+      </c>
+      <c r="T11">
+        <v>0.03226163941577561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>146.2303303333333</v>
+      </c>
+      <c r="H12">
+        <v>438.6909910000001</v>
+      </c>
+      <c r="I12">
+        <v>0.2946630198121519</v>
+      </c>
+      <c r="J12">
+        <v>0.2946630198121519</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02952066666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.088562</v>
+      </c>
+      <c r="O12">
+        <v>0.003044146203987976</v>
+      </c>
+      <c r="P12">
+        <v>0.003044146203987975</v>
+      </c>
+      <c r="Q12">
+        <v>4.316816838326889</v>
+      </c>
+      <c r="R12">
+        <v>38.85135154494201</v>
+      </c>
+      <c r="S12">
+        <v>0.0008969973132167959</v>
+      </c>
+      <c r="T12">
+        <v>0.0008969973132167958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>146.2303303333333</v>
+      </c>
+      <c r="H13">
+        <v>438.6909910000001</v>
+      </c>
+      <c r="I13">
+        <v>0.2946630198121519</v>
+      </c>
+      <c r="J13">
+        <v>0.2946630198121519</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.635257666666666</v>
+      </c>
+      <c r="N13">
+        <v>7.905773</v>
+      </c>
+      <c r="O13">
+        <v>0.2717455439978843</v>
+      </c>
+      <c r="P13">
+        <v>0.2717455439978843</v>
+      </c>
+      <c r="Q13">
+        <v>385.3545991101159</v>
+      </c>
+      <c r="R13">
+        <v>3468.191391991043</v>
+      </c>
+      <c r="S13">
+        <v>0.08007336261491259</v>
+      </c>
+      <c r="T13">
+        <v>0.08007336261491257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>90.630432</v>
+      </c>
+      <c r="H14">
+        <v>271.891296</v>
+      </c>
+      <c r="I14">
+        <v>0.1826258391068707</v>
+      </c>
+      <c r="J14">
+        <v>0.1826258391068707</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>5.970993</v>
+      </c>
+      <c r="N14">
+        <v>17.912979</v>
+      </c>
+      <c r="O14">
+        <v>0.6157237531330177</v>
+      </c>
+      <c r="P14">
+        <v>0.6157237531330177</v>
+      </c>
+      <c r="Q14">
+        <v>541.153675058976</v>
+      </c>
+      <c r="R14">
+        <v>4870.383075530784</v>
+      </c>
+      <c r="S14">
+        <v>0.1124470670739491</v>
+      </c>
+      <c r="T14">
+        <v>0.1124470670739491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>90.630432</v>
+      </c>
+      <c r="H15">
+        <v>271.891296</v>
+      </c>
+      <c r="I15">
+        <v>0.1826258391068707</v>
+      </c>
+      <c r="J15">
+        <v>0.1826258391068707</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.061748</v>
+      </c>
+      <c r="N15">
+        <v>3.185244</v>
+      </c>
+      <c r="O15">
+        <v>0.10948655666511</v>
+      </c>
+      <c r="P15">
+        <v>0.10948655666511</v>
+      </c>
+      <c r="Q15">
+        <v>96.22667991513599</v>
+      </c>
+      <c r="R15">
+        <v>866.040119236224</v>
+      </c>
+      <c r="S15">
+        <v>0.01999507428188767</v>
+      </c>
+      <c r="T15">
+        <v>0.01999507428188766</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>90.630432</v>
+      </c>
+      <c r="H16">
+        <v>271.891296</v>
+      </c>
+      <c r="I16">
+        <v>0.1826258391068707</v>
+      </c>
+      <c r="J16">
+        <v>0.1826258391068707</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02952066666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.088562</v>
+      </c>
+      <c r="O16">
+        <v>0.003044146203987976</v>
+      </c>
+      <c r="P16">
+        <v>0.003044146203987975</v>
+      </c>
+      <c r="Q16">
+        <v>2.675470772928</v>
+      </c>
+      <c r="R16">
+        <v>24.079236956352</v>
+      </c>
+      <c r="S16">
+        <v>0.0005559397548672992</v>
+      </c>
+      <c r="T16">
+        <v>0.0005559397548672991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>90.630432</v>
+      </c>
+      <c r="H17">
+        <v>271.891296</v>
+      </c>
+      <c r="I17">
+        <v>0.1826258391068707</v>
+      </c>
+      <c r="J17">
+        <v>0.1826258391068707</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.635257666666666</v>
+      </c>
+      <c r="N17">
+        <v>7.905773</v>
+      </c>
+      <c r="O17">
+        <v>0.2717455439978843</v>
+      </c>
+      <c r="P17">
+        <v>0.2717455439978843</v>
+      </c>
+      <c r="Q17">
+        <v>238.834540761312</v>
+      </c>
+      <c r="R17">
+        <v>2149.510866851808</v>
+      </c>
+      <c r="S17">
+        <v>0.04962775799616667</v>
+      </c>
+      <c r="T17">
+        <v>0.04962775799616666</v>
       </c>
     </row>
   </sheetData>
